--- a/システム英熟語/勉強実績ノート.xlsx
+++ b/システム英熟語/勉強実績ノート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshi_000.000\MyImp\MyOwn\学習\英語\システム英熟語\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D985E01-090B-478E-814F-4736EAE07C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E487D39-C921-4DAA-9198-1EBCB35697CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{001C277C-73DC-44EB-B70D-80ADD929B7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{001C277C-73DC-44EB-B70D-80ADD929B7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="勉強実績" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
   <si>
     <t>２動詞</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>5880s / 269個 = 21s/個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2h11m = 131m</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,26 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１形副</t>
-    <rPh sb="1" eb="2">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２形副</t>
-    <rPh sb="1" eb="2">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ３</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -191,6 +167,456 @@
     <t>多義語</t>
     <rPh sb="0" eb="3">
       <t>タギゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再開</t>
+    <rPh sb="0" eb="2">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-27m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-9m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-2h11m=131m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h23m = 83m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83m - (27m + 9m) = 47m = 2820s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2820s / 130個 = 21s/個</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２形副他</t>
+    <rPh sb="1" eb="3">
+      <t>ケイフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42m = 2520s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2520s / 75個 = 33s/個</t>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１形副他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２形副他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seek</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disturb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>155</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perceive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-1h53m=113m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3h33m=213m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>213m - 113m = 100m = 6000s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6000s / 174個 = 34s/個</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>189</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>239</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>41m = 2460s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2460s / 79個 = 31s/個</t>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１形副他</t>
+    <rPh sb="1" eb="3">
+      <t>ケイフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>278</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>304</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>308</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-10m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>native</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>positive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tougt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>civil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>49m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>49m - 10m = 39m = 2340s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2340s / 78個 = 30s/個</t>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>347</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>351</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m = 1200s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1200s / 64個 = 18s/個</t>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achieve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>611</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>622</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pursue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>625</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>630</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illustrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>depress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>643</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prohibit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>644</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oblige</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>648</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collapse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>651</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frustrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>658</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neglect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>660</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resolve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>682</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>664</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>constitute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>666</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>667</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>670</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>672</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>673</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>undertake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>683</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>685</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>696</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diminish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>699</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1h15m = 75m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2h19m = 139m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>139m - 75m = 64m = 3840s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3840s / 101個 = 38s/個</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,8 +626,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\(aaa\)"/>
-    <numFmt numFmtId="181" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\(aaa\)"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -280,22 +706,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -317,6 +734,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,241 +1059,772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6192C1-6E70-418F-BBEE-2019773DB490}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="8.88671875" style="11"/>
+    <col min="6" max="6" width="34.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>44590</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.37291666666666662</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>683</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11">
+        <v>685</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11">
+        <v>691</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11">
+        <v>698</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="11">
+        <v>696</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11">
+        <v>699</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11">
+        <v>700</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="11">
+        <v>701</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>0.39305555555555555</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>0.39513888888888887</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D37" s="3">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F52" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F53" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F57" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>0.42152777777777778</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>0.44375000000000003</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>683</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>0.5180555555555556</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15">
-        <v>685</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>0.60902777777777783</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>691</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>0.63472222222222219</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17">
-        <v>698</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <v>696</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19">
-        <v>699</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20">
-        <v>700</v>
-      </c>
-      <c r="K20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J21">
-        <v>701</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>44591</v>
+      <c r="D59" s="3">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F63" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F64" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -879,20 +1836,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FAC860-7F5E-46C5-B0BE-DE55E262C3A2}">
-  <dimension ref="B2:E27"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2">
         <v>174</v>
@@ -904,7 +1865,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>253</v>
@@ -915,20 +1876,20 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
         <v>331</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E22" si="0">D4-D3</f>
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>395</v>
@@ -940,7 +1901,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>525</v>
@@ -951,24 +1912,24 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2">
         <v>600</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>701</v>
@@ -980,7 +1941,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>791</v>
@@ -991,20 +1952,20 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2">
         <v>852</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>926</v>
@@ -1016,7 +1977,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1111</v>
@@ -1027,26 +1988,26 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2">
         <v>1200</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4">
         <v>1276</v>
       </c>
       <c r="E14">
@@ -1056,9 +2017,9 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4">
         <v>1321</v>
       </c>
       <c r="E15">
@@ -1067,22 +2028,22 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
         <v>1342</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4">
         <v>1442</v>
       </c>
       <c r="E17">
@@ -1092,9 +2053,9 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
         <v>1615</v>
       </c>
       <c r="E18">
@@ -1103,79 +2064,79 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2">
         <v>1700</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6">
         <v>1786</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
         <v>1941</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8">
         <v>2027</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13">
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10">
         <v>184</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="10"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
